--- a/results/results_with_cost_performance_measurement.xlsx
+++ b/results/results_with_cost_performance_measurement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ioanniskydonis/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ioanniskydonis/IdeaProjects/computer-architecture-t2/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAFCA58-B199-7342-BB1E-8BC0A838F8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46B06F2-B86F-7B4E-842B-8CFC9684A5DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15420" yWindow="460" windowWidth="41440" windowHeight="32240" xr2:uid="{7AAC141D-DCDA-4AC9-8C6F-69C4E33EB0B3}"/>
   </bookViews>
@@ -251,13 +251,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15996,8 +15997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97659922-47DD-423A-BDDF-72D447A27910}">
   <dimension ref="A1:P172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P172" sqref="P172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16011,14 +16012,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -16118,9 +16119,9 @@
         <f>H3/128*10 + (I3 + J3)/128*10 + (L3+M3) + K3/4096*1 + N3/4*1</f>
         <v>24</v>
       </c>
-      <c r="P3">
-        <f>(G3+C3)/O3</f>
-        <v>8.2708213345833323E-2</v>
+      <c r="P3" s="2">
+        <f>(1/G3+1/C3)/O3</f>
+        <v>0.13337459956735623</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -16171,9 +16172,9 @@
         <f t="shared" ref="O4:O67" si="1">H4/128*10 + (I4 + J4)/128*10 + (L4+M4) + K4/4096*1 + N4/4*1</f>
         <v>16.5</v>
       </c>
-      <c r="P4" s="3">
-        <f t="shared" ref="P4:P67" si="2">(G4+C4)/O4</f>
-        <v>0.16167112004242426</v>
+      <c r="P4">
+        <f t="shared" ref="P4:P67" si="2">(1/G4+1/C4)/O4</f>
+        <v>9.8633470336914428E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -16226,7 +16227,7 @@
       </c>
       <c r="P5">
         <f t="shared" si="2"/>
-        <v>0.11393419226315792</v>
+        <v>0.12661256757434566</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -16277,9 +16278,9 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="2">
         <f t="shared" si="2"/>
-        <v>0.12224135097222222</v>
+        <v>0.13032382758199254</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -16332,7 +16333,7 @@
       </c>
       <c r="P7">
         <f t="shared" si="2"/>
-        <v>0.11393419226315792</v>
+        <v>0.12661256757434566</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -16385,7 +16386,7 @@
       </c>
       <c r="P8">
         <f t="shared" si="2"/>
-        <v>0.10236330628095239</v>
+        <v>0.11573997874622551</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -16438,7 +16439,7 @@
       </c>
       <c r="P9">
         <f t="shared" si="2"/>
-        <v>6.7185525400000001E-2</v>
+        <v>7.8915863212774107E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -16491,7 +16492,7 @@
       </c>
       <c r="P10">
         <f t="shared" si="2"/>
-        <v>9.3061153116483511E-2</v>
+        <v>0.10916594806799856</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -16544,7 +16545,7 @@
       </c>
       <c r="P11">
         <f t="shared" si="2"/>
-        <v>8.819933395E-2</v>
+        <v>0.10352233807275942</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -16597,7 +16598,7 @@
       </c>
       <c r="P12">
         <f t="shared" si="2"/>
-        <v>7.9864607992452832E-2</v>
+        <v>9.3800384309361662E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -16650,7 +16651,7 @@
       </c>
       <c r="P13">
         <f t="shared" si="2"/>
-        <v>0.10094655314285715</v>
+        <v>9.6587898814544243E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -16701,9 +16702,9 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14">
         <f t="shared" si="2"/>
-        <v>0.16407235040714285</v>
+        <v>0.15686968269230669</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -16756,7 +16757,7 @@
       </c>
       <c r="P15">
         <f t="shared" si="2"/>
-        <v>0.15061257341639345</v>
+        <v>0.14405011130887521</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -16809,7 +16810,7 @@
       </c>
       <c r="P16">
         <f t="shared" si="2"/>
-        <v>0.12938539218591549</v>
+        <v>0.12379131717639029</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -16862,7 +16863,7 @@
       </c>
       <c r="P17">
         <f t="shared" si="2"/>
-        <v>9.2879775579166671E-2</v>
+        <v>9.5907271002918335E-2</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -16913,9 +16914,9 @@
         <f t="shared" si="1"/>
         <v>15.25</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="2">
         <f t="shared" si="2"/>
-        <v>0.14621434177049178</v>
+        <v>0.15083692530951323</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -16968,7 +16969,7 @@
       </c>
       <c r="P19">
         <f t="shared" si="2"/>
-        <v>0.13511946954545453</v>
+        <v>0.13945144607781909</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -17021,7 +17022,7 @@
       </c>
       <c r="P20">
         <f t="shared" si="2"/>
-        <v>0.11731947549999999</v>
+        <v>0.12114736982843165</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -17074,7 +17075,7 @@
       </c>
       <c r="P21">
         <f t="shared" si="2"/>
-        <v>8.1670627433962278E-2</v>
+        <v>9.0819408214350139E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -17127,7 +17128,7 @@
       </c>
       <c r="P22">
         <f t="shared" si="2"/>
-        <v>0.12197330042253522</v>
+        <v>0.13548296404227836</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -17180,7 +17181,7 @@
       </c>
       <c r="P23">
         <f t="shared" si="2"/>
-        <v>0.11393419226315792</v>
+        <v>0.12661256757434566</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -17233,7 +17234,7 @@
       </c>
       <c r="P24">
         <f t="shared" si="2"/>
-        <v>0.10066516804651163</v>
+        <v>0.11194077240151624</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -17284,9 +17285,9 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="2">
         <f t="shared" si="2"/>
-        <v>0.12029027161111111</v>
+        <v>0.13357457176794815</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -17339,7 +17340,7 @@
       </c>
       <c r="P26">
         <f t="shared" si="2"/>
-        <v>0.11393419226315792</v>
+        <v>0.12661256757434566</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -17392,7 +17393,7 @@
       </c>
       <c r="P27">
         <f t="shared" si="2"/>
-        <v>0.10306177325714284</v>
+        <v>0.11460887454808479</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -17443,9 +17444,9 @@
         <f t="shared" si="1"/>
         <v>17.25</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28">
         <f t="shared" si="2"/>
-        <v>0.12867741293913043</v>
+        <v>0.13169426908446843</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -17496,9 +17497,9 @@
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="2">
         <f t="shared" si="2"/>
-        <v>0.12453549365142857</v>
+        <v>0.13538429297240612</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -17551,7 +17552,7 @@
       </c>
       <c r="P30">
         <f t="shared" si="2"/>
-        <v>0.12022262537222222</v>
+        <v>0.13367478330560786</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -17604,7 +17605,7 @@
       </c>
       <c r="P31">
         <f t="shared" si="2"/>
-        <v>0.11915814446400001</v>
+        <v>0.11976437865096543</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -17657,7 +17658,7 @@
       </c>
       <c r="P32">
         <f t="shared" si="2"/>
-        <v>0.11393419226315792</v>
+        <v>0.12661256757434566</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -17708,9 +17709,9 @@
         <f t="shared" si="1"/>
         <v>19.5</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="2">
         <f t="shared" si="2"/>
-        <v>0.10800608335897434</v>
+        <v>0.13143890813559639</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -17763,18 +17764,18 @@
       </c>
       <c r="P34">
         <f t="shared" si="2"/>
-        <v>0.12703056201879195</v>
+        <v>0.10734187965178318</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
       <c r="G35">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -17804,9 +17805,9 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="P35">
+      <c r="P35" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -17886,7 +17887,7 @@
         <v>4.8034812899999994E-2</v>
       </c>
       <c r="H37" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="I37" s="1">
         <v>32</v>
@@ -17908,11 +17909,11 @@
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="P37">
+        <v>24</v>
+      </c>
+      <c r="P37" s="2">
         <f t="shared" si="2"/>
-        <v>7.5666569099999983E-2</v>
+        <v>0.89741043880427007</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -17939,7 +17940,7 @@
         <v>0.15837845820000002</v>
       </c>
       <c r="H38" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="I38" s="1">
         <v>32</v>
@@ -17961,11 +17962,11 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="P38">
         <f t="shared" si="2"/>
-        <v>8.3324708326315791E-2</v>
+        <v>0.42520286769047433</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -18018,7 +18019,7 @@
       </c>
       <c r="P39">
         <f t="shared" si="2"/>
-        <v>7.8177168899999996E-2</v>
+        <v>0.6639215890665835</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -18057,7 +18058,7 @@
         <v>2048</v>
       </c>
       <c r="L40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M40" s="1">
         <v>2</v>
@@ -18067,11 +18068,11 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P40">
         <f t="shared" si="2"/>
-        <v>8.2153082663157906E-2</v>
+        <v>0.51281194293744536</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -18122,9 +18123,9 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="2">
         <f t="shared" si="2"/>
-        <v>7.8177168899999996E-2</v>
+        <v>0.6639215890665835</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -18163,7 +18164,7 @@
         <v>2048</v>
       </c>
       <c r="L42" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M42" s="1">
         <v>2</v>
@@ -18173,11 +18174,11 @@
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="P42">
+        <v>21</v>
+      </c>
+      <c r="P42" s="4">
         <f t="shared" si="2"/>
-        <v>7.7911012710526306E-2</v>
+        <v>0.61761715999632383</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -18207,10 +18208,10 @@
         <v>64</v>
       </c>
       <c r="I43" s="1">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="J43" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="K43" s="1">
         <v>2048</v>
@@ -18226,11 +18227,11 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="P43">
+        <v>31.5</v>
+      </c>
+      <c r="P43" s="4">
         <f t="shared" si="2"/>
-        <v>7.4681770368421052E-2</v>
+        <v>0.86408047340573313</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -18260,10 +18261,10 @@
         <v>64</v>
       </c>
       <c r="I44" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J44" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="K44" s="1">
         <v>2048</v>
@@ -18279,11 +18280,11 @@
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>22.75</v>
       </c>
       <c r="P44">
         <f t="shared" si="2"/>
-        <v>7.4930253652631576E-2</v>
+        <v>1.0803860178524725</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -18316,7 +18317,7 @@
         <v>32</v>
       </c>
       <c r="J45" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="K45" s="1">
         <v>2048</v>
@@ -18332,11 +18333,11 @@
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="P45">
+        <v>24</v>
+      </c>
+      <c r="P45" s="2">
         <f t="shared" si="2"/>
-        <v>7.4761382631578943E-2</v>
+        <v>1.0962900732541641</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -18366,10 +18367,10 @@
         <v>64</v>
       </c>
       <c r="I46" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J46" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="K46" s="1">
         <v>2048</v>
@@ -18385,11 +18386,11 @@
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>26.5</v>
       </c>
       <c r="P46">
         <f t="shared" si="2"/>
-        <v>7.4715304047368425E-2</v>
+        <v>1.0117733187309401</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -18419,10 +18420,10 @@
         <v>64</v>
       </c>
       <c r="I47" s="1">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="J47" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="K47" s="1">
         <v>2048</v>
@@ -18438,11 +18439,11 @@
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>22.75</v>
       </c>
       <c r="P47">
         <f t="shared" si="2"/>
-        <v>8.2065382499999992E-2</v>
+        <v>0.3785723078769575</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -18472,10 +18473,10 @@
         <v>64</v>
       </c>
       <c r="I48" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J48" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="K48" s="1">
         <v>2048</v>
@@ -18491,11 +18492,11 @@
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="P48">
         <f t="shared" si="2"/>
-        <v>8.2250274315789462E-2</v>
+        <v>0.60151754600701168</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -18528,7 +18529,7 @@
         <v>32</v>
       </c>
       <c r="J49" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="K49" s="1">
         <v>2048</v>
@@ -18544,11 +18545,11 @@
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>15.25</v>
       </c>
       <c r="P49">
         <f t="shared" si="2"/>
-        <v>8.2126604694736829E-2</v>
+        <v>0.56067794260707271</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -18578,10 +18579,10 @@
         <v>64</v>
       </c>
       <c r="I50" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J50" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="K50" s="1">
         <v>2048</v>
@@ -18597,11 +18598,11 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>17.75</v>
       </c>
       <c r="P50">
         <f t="shared" si="2"/>
-        <v>8.208990399473684E-2</v>
+        <v>0.48362982090954304</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -18631,10 +18632,10 @@
         <v>64</v>
       </c>
       <c r="I51" s="1">
+        <v>128</v>
+      </c>
+      <c r="J51" s="1">
         <v>32</v>
-      </c>
-      <c r="J51" s="1">
-        <v>64</v>
       </c>
       <c r="K51" s="1">
         <v>2048</v>
@@ -18650,11 +18651,11 @@
       </c>
       <c r="O51">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P51">
         <f t="shared" si="2"/>
-        <v>7.986984416842105E-2</v>
+        <v>0.42391764081351274</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -18684,10 +18685,10 @@
         <v>64</v>
       </c>
       <c r="I52" s="1">
+        <v>16</v>
+      </c>
+      <c r="J52" s="1">
         <v>32</v>
-      </c>
-      <c r="J52" s="1">
-        <v>64</v>
       </c>
       <c r="K52" s="1">
         <v>2048</v>
@@ -18703,11 +18704,11 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>15.25</v>
       </c>
       <c r="P52">
         <f t="shared" si="2"/>
-        <v>8.0057731789473688E-2</v>
+        <v>0.64897706292984458</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -18740,7 +18741,7 @@
         <v>32</v>
       </c>
       <c r="J53" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="K53" s="1">
         <v>2048</v>
@@ -18756,11 +18757,11 @@
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="P53">
         <f t="shared" si="2"/>
-        <v>7.9928559031578944E-2</v>
+        <v>0.61118968079522962</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -18790,10 +18791,10 @@
         <v>64</v>
       </c>
       <c r="I54" s="1">
+        <v>64</v>
+      </c>
+      <c r="J54" s="1">
         <v>32</v>
-      </c>
-      <c r="J54" s="1">
-        <v>64</v>
       </c>
       <c r="K54" s="1">
         <v>2048</v>
@@ -18813,7 +18814,7 @@
       </c>
       <c r="P54">
         <f t="shared" si="2"/>
-        <v>7.9894659578947369E-2</v>
+        <v>0.53332174922844522</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -18843,7 +18844,7 @@
         <v>64</v>
       </c>
       <c r="I55" s="1">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="J55" s="1">
         <v>64</v>
@@ -18862,11 +18863,11 @@
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>26.5</v>
       </c>
       <c r="P55">
         <f t="shared" si="2"/>
-        <v>7.8116294189473676E-2</v>
+        <v>0.4815928511011992</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -18896,7 +18897,7 @@
         <v>64</v>
       </c>
       <c r="I56" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J56" s="1">
         <v>64</v>
@@ -18915,11 +18916,11 @@
       </c>
       <c r="O56">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>17.75</v>
       </c>
       <c r="P56">
         <f t="shared" si="2"/>
-        <v>7.8313679842105258E-2</v>
+        <v>0.69319141415258212</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -18972,7 +18973,7 @@
       </c>
       <c r="P57">
         <f t="shared" si="2"/>
-        <v>7.8177168899999996E-2</v>
+        <v>0.6639215890665835</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -19002,7 +19003,7 @@
         <v>64</v>
       </c>
       <c r="I58" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J58" s="1">
         <v>64</v>
@@ -19021,11 +19022,11 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21.5</v>
       </c>
       <c r="P58">
         <f t="shared" si="2"/>
-        <v>7.8141401242105252E-2</v>
+        <v>0.59056831965861289</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -19067,18 +19068,18 @@
         <v>2</v>
       </c>
       <c r="M59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N59" s="1">
         <v>8</v>
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P59">
         <f t="shared" si="2"/>
-        <v>7.8750247747368426E-2</v>
+        <v>0.63621664649533505</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -19129,9 +19130,9 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="P60">
+      <c r="P60" s="2">
         <f t="shared" si="2"/>
-        <v>7.8177168899999996E-2</v>
+        <v>0.6639215890665835</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -19173,18 +19174,18 @@
         <v>2</v>
       </c>
       <c r="M61" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N61" s="1">
         <v>8</v>
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="P61">
+        <v>21</v>
+      </c>
+      <c r="P61" s="4">
         <f t="shared" si="2"/>
-        <v>7.8124746194736847E-2</v>
+        <v>0.60676735311151675</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -19229,15 +19230,15 @@
         <v>2</v>
       </c>
       <c r="N62" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="P62">
+        <v>17.25</v>
+      </c>
+      <c r="P62" s="2">
         <f t="shared" si="2"/>
-        <v>7.8177168899999996E-2</v>
+        <v>0.73127595317478766</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -19282,15 +19283,15 @@
         <v>2</v>
       </c>
       <c r="N63" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O63">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="P63">
+        <v>17.5</v>
+      </c>
+      <c r="P63" s="4">
         <f t="shared" si="2"/>
-        <v>7.8177168899999996E-2</v>
+        <v>0.72082915384371926</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -19335,15 +19336,15 @@
         <v>2</v>
       </c>
       <c r="N64" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="P64">
+        <v>18</v>
+      </c>
+      <c r="P64" s="4">
         <f t="shared" si="2"/>
-        <v>7.8177168899999996E-2</v>
+        <v>0.70080612179250479</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -19379,7 +19380,7 @@
         <v>64</v>
       </c>
       <c r="K65" s="1">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="L65" s="1">
         <v>2</v>
@@ -19392,11 +19393,11 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18.75</v>
       </c>
       <c r="P65">
         <f t="shared" si="2"/>
-        <v>7.8177168899999996E-2</v>
+        <v>0.67277387692080459</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -19449,7 +19450,7 @@
       </c>
       <c r="P66">
         <f t="shared" si="2"/>
-        <v>7.8177168899999996E-2</v>
+        <v>0.6639215890665835</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -19485,7 +19486,7 @@
         <v>64</v>
       </c>
       <c r="K67" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="L67" s="1">
         <v>2</v>
@@ -19498,11 +19499,11 @@
       </c>
       <c r="O67">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="P67">
         <f t="shared" si="2"/>
-        <v>7.8177168899999996E-2</v>
+        <v>0.64689795857769672</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -19538,7 +19539,7 @@
         <v>64</v>
       </c>
       <c r="K68" s="1">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="L68" s="1">
         <v>2</v>
@@ -19551,22 +19552,22 @@
       </c>
       <c r="O68">
         <f t="shared" ref="O68:O131" si="4">H68/128*10 + (I68 + J68)/128*10 + (L68+M68) + K68/4096*1 + N68/4*1</f>
-        <v>19</v>
-      </c>
-      <c r="P68">
-        <f t="shared" ref="P68:P131" si="5">(G68+C68)/O68</f>
-        <v>7.8177168899999996E-2</v>
+        <v>18.625</v>
+      </c>
+      <c r="P68" s="2">
+        <f t="shared" ref="P68:P131" si="5">(1/G68+1/C68)/O68</f>
+        <v>0.67728913783973621</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
       <c r="G69">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -19596,9 +19597,9 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="P69">
+      <c r="P69" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -19678,7 +19679,7 @@
         <v>3.3646762666999996</v>
       </c>
       <c r="H71" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="I71" s="1">
         <v>32</v>
@@ -19700,11 +19701,11 @@
       </c>
       <c r="O71">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="P71">
+        <v>24</v>
+      </c>
+      <c r="P71" s="2">
         <f t="shared" si="5"/>
-        <v>0.28182396140526317</v>
+        <v>3.332180328867252E-2</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -19731,7 +19732,7 @@
         <v>13.422505950000001</v>
       </c>
       <c r="H72" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="I72" s="1">
         <v>32</v>
@@ -19753,11 +19754,11 @@
       </c>
       <c r="O72">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="P72">
         <f t="shared" si="5"/>
-        <v>0.91279820789473687</v>
+        <v>1.9973383853594043E-2</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -19810,7 +19811,7 @@
       </c>
       <c r="P73">
         <f t="shared" si="5"/>
-        <v>0.49155892621052627</v>
+        <v>2.7903925228039288E-2</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -19849,7 +19850,7 @@
         <v>2048</v>
       </c>
       <c r="L74" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M74" s="1">
         <v>2</v>
@@ -19859,11 +19860,11 @@
       </c>
       <c r="O74">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="P74">
+        <v>18</v>
+      </c>
+      <c r="P74" s="2">
         <f t="shared" si="5"/>
-        <v>0.49143326008421045</v>
+        <v>2.9348854515429457E-2</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -19916,7 +19917,7 @@
       </c>
       <c r="P75">
         <f t="shared" si="5"/>
-        <v>0.49155892621052627</v>
+        <v>2.7903925228039288E-2</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -19955,7 +19956,7 @@
         <v>2048</v>
       </c>
       <c r="L76" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M76" s="1">
         <v>2</v>
@@ -19965,11 +19966,11 @@
       </c>
       <c r="O76">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P76">
         <f t="shared" si="5"/>
-        <v>0.49155892621052627</v>
+        <v>2.5246408539654593E-2</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -19999,10 +20000,10 @@
         <v>64</v>
       </c>
       <c r="I77" s="1">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="J77" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="K77" s="1">
         <v>2048</v>
@@ -20018,11 +20019,11 @@
       </c>
       <c r="O77">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>31.5</v>
       </c>
       <c r="P77">
         <f t="shared" si="5"/>
-        <v>0.4915089580578948</v>
+        <v>1.6832045267446326E-2</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -20052,10 +20053,10 @@
         <v>64</v>
       </c>
       <c r="I78" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J78" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="K78" s="1">
         <v>2048</v>
@@ -20071,11 +20072,11 @@
       </c>
       <c r="O78">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>22.75</v>
       </c>
       <c r="P78">
         <f t="shared" si="5"/>
-        <v>0.4916342874210527</v>
+        <v>2.3303502472431757E-2</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -20108,7 +20109,7 @@
         <v>32</v>
       </c>
       <c r="J79" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="K79" s="1">
         <v>2048</v>
@@ -20124,11 +20125,11 @@
       </c>
       <c r="O79">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P79">
         <f t="shared" si="5"/>
-        <v>0.49155892621052627</v>
+        <v>2.2090607472197769E-2</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -20158,10 +20159,10 @@
         <v>64</v>
       </c>
       <c r="I80" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J80" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="K80" s="1">
         <v>2048</v>
@@ -20177,11 +20178,11 @@
       </c>
       <c r="O80">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>26.5</v>
       </c>
       <c r="P80">
         <f t="shared" si="5"/>
-        <v>0.49151828728421054</v>
+        <v>2.0007754579462318E-2</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -20211,10 +20212,10 @@
         <v>64</v>
       </c>
       <c r="I81" s="1">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="J81" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="K81" s="1">
         <v>2048</v>
@@ -20230,11 +20231,11 @@
       </c>
       <c r="O81">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>22.75</v>
       </c>
       <c r="P81">
         <f t="shared" si="5"/>
-        <v>0.49150670858947371</v>
+        <v>2.3305950481559971E-2</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -20264,10 +20265,10 @@
         <v>64</v>
       </c>
       <c r="I82" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J82" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="K82" s="1">
         <v>2048</v>
@@ -20283,11 +20284,11 @@
       </c>
       <c r="O82">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="P82">
+        <v>14</v>
+      </c>
+      <c r="P82" s="2">
         <f t="shared" si="5"/>
-        <v>0.49163235842105257</v>
+        <v>3.7868249515492489E-2</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -20320,7 +20321,7 @@
         <v>32</v>
       </c>
       <c r="J83" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="K83" s="1">
         <v>2048</v>
@@ -20336,11 +20337,11 @@
       </c>
       <c r="O83">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>15.25</v>
       </c>
       <c r="P83">
         <f t="shared" si="5"/>
-        <v>0.49155262374210523</v>
+        <v>3.4766342428818056E-2</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -20370,10 +20371,10 @@
         <v>64</v>
       </c>
       <c r="I84" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J84" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="K84" s="1">
         <v>2048</v>
@@ -20389,11 +20390,11 @@
       </c>
       <c r="O84">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>17.75</v>
       </c>
       <c r="P84">
         <f t="shared" si="5"/>
-        <v>0.49151603774210528</v>
+        <v>2.9870785570011518E-2</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -20423,10 +20424,10 @@
         <v>64</v>
       </c>
       <c r="I85" s="1">
+        <v>128</v>
+      </c>
+      <c r="J85" s="1">
         <v>32</v>
-      </c>
-      <c r="J85" s="1">
-        <v>64</v>
       </c>
       <c r="K85" s="1">
         <v>2048</v>
@@ -20442,11 +20443,11 @@
       </c>
       <c r="O85">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P85">
         <f t="shared" si="5"/>
-        <v>0.4915089580578948</v>
+        <v>2.20920594135233E-2</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -20476,10 +20477,10 @@
         <v>64</v>
       </c>
       <c r="I86" s="1">
+        <v>16</v>
+      </c>
+      <c r="J86" s="1">
         <v>32</v>
-      </c>
-      <c r="J86" s="1">
-        <v>64</v>
       </c>
       <c r="K86" s="1">
         <v>2048</v>
@@ -20495,11 +20496,11 @@
       </c>
       <c r="O86">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>15.25</v>
       </c>
       <c r="P86">
         <f t="shared" si="5"/>
-        <v>0.4916342874210527</v>
+        <v>3.4764241393299838E-2</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -20532,7 +20533,7 @@
         <v>32</v>
       </c>
       <c r="J87" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="K87" s="1">
         <v>2048</v>
@@ -20548,11 +20549,11 @@
       </c>
       <c r="O87">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="P87">
         <f t="shared" si="5"/>
-        <v>0.49155892621052627</v>
+        <v>3.2131792686833117E-2</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -20582,10 +20583,10 @@
         <v>64</v>
       </c>
       <c r="I88" s="1">
+        <v>64</v>
+      </c>
+      <c r="J88" s="1">
         <v>32</v>
-      </c>
-      <c r="J88" s="1">
-        <v>64</v>
       </c>
       <c r="K88" s="1">
         <v>2048</v>
@@ -20605,7 +20606,7 @@
       </c>
       <c r="P88">
         <f t="shared" si="5"/>
-        <v>0.49151828728421054</v>
+        <v>2.7905552439776393E-2</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -20635,7 +20636,7 @@
         <v>64</v>
       </c>
       <c r="I89" s="1">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="J89" s="1">
         <v>64</v>
@@ -20654,11 +20655,11 @@
       </c>
       <c r="O89">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>26.5</v>
       </c>
       <c r="P89">
         <f t="shared" si="5"/>
-        <v>0.4915089580578948</v>
+        <v>2.0007902865077705E-2</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -20688,7 +20689,7 @@
         <v>64</v>
       </c>
       <c r="I90" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J90" s="1">
         <v>64</v>
@@ -20707,11 +20708,11 @@
       </c>
       <c r="O90">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>17.75</v>
       </c>
       <c r="P90">
         <f t="shared" si="5"/>
-        <v>0.4916342874210527</v>
+        <v>2.9867869366074506E-2</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -20764,7 +20765,7 @@
       </c>
       <c r="P91">
         <f t="shared" si="5"/>
-        <v>0.49155892621052627</v>
+        <v>2.7903925228039288E-2</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -20794,7 +20795,7 @@
         <v>64</v>
       </c>
       <c r="I92" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J92" s="1">
         <v>64</v>
@@ -20813,11 +20814,11 @@
       </c>
       <c r="O92">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>21.5</v>
       </c>
       <c r="P92">
         <f t="shared" si="5"/>
-        <v>0.49151828728421054</v>
+        <v>2.4660720760732623E-2</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -20859,18 +20860,18 @@
         <v>2</v>
       </c>
       <c r="M93" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N93" s="1">
         <v>8</v>
       </c>
       <c r="O93">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="P93">
+        <v>18</v>
+      </c>
+      <c r="P93" s="2">
         <f t="shared" si="5"/>
-        <v>0.49168963917368419</v>
+        <v>2.9451613565347017E-2</v>
       </c>
     </row>
     <row r="94" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -20923,7 +20924,7 @@
       </c>
       <c r="P94">
         <f t="shared" si="5"/>
-        <v>0.49155892621052627</v>
+        <v>2.7903925228039288E-2</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -20965,18 +20966,18 @@
         <v>2</v>
       </c>
       <c r="M95" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N95" s="1">
         <v>8</v>
       </c>
       <c r="O95">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P95">
         <f t="shared" si="5"/>
-        <v>0.49153118972631576</v>
+        <v>2.5247187763537505E-2</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -21021,15 +21022,15 @@
         <v>2</v>
       </c>
       <c r="N96" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O96">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="P96">
+        <v>17.25</v>
+      </c>
+      <c r="P96" s="2">
         <f t="shared" si="5"/>
-        <v>0.49155892621052627</v>
+        <v>3.0734758222188203E-2</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -21074,15 +21075,15 @@
         <v>2</v>
       </c>
       <c r="N97" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O97">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="P97">
         <f t="shared" si="5"/>
-        <v>0.49155892621052627</v>
+        <v>3.0295690247585511E-2</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -21127,15 +21128,15 @@
         <v>2</v>
       </c>
       <c r="N98" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O98">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P98">
         <f t="shared" si="5"/>
-        <v>0.49155892621052627</v>
+        <v>2.9454143296263693E-2</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -21171,7 +21172,7 @@
         <v>64</v>
       </c>
       <c r="K99" s="1">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="L99" s="1">
         <v>2</v>
@@ -21184,11 +21185,11 @@
       </c>
       <c r="O99">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>18.75</v>
       </c>
       <c r="P99">
         <f t="shared" si="5"/>
-        <v>0.49161629463157897</v>
+        <v>2.826752914723377E-2</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -21241,7 +21242,7 @@
       </c>
       <c r="P100">
         <f t="shared" si="5"/>
-        <v>0.49155892621052627</v>
+        <v>2.7903925228039288E-2</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -21277,7 +21278,7 @@
         <v>64</v>
       </c>
       <c r="K101" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="L101" s="1">
         <v>2</v>
@@ -21290,11 +21291,11 @@
       </c>
       <c r="O101">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="P101">
         <f t="shared" si="5"/>
-        <v>0.49143192621052628</v>
+        <v>2.7206447450901807E-2</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -21330,7 +21331,7 @@
         <v>64</v>
       </c>
       <c r="K102" s="1">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="L102" s="1">
         <v>2</v>
@@ -21343,11 +21344,11 @@
       </c>
       <c r="O102">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="P102">
+        <v>18.625</v>
+      </c>
+      <c r="P102" s="2">
         <f t="shared" si="5"/>
-        <v>0.49164908410526315</v>
+        <v>2.8452386098929715E-2</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -21386,20 +21387,20 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="P103">
+      <c r="P103" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
       <c r="G104">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21429,9 +21430,9 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="P104">
+      <c r="P104" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -21511,7 +21512,7 @@
         <v>0.33909830499999999</v>
       </c>
       <c r="H106" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="I106" s="1">
         <v>32</v>
@@ -21533,11 +21534,11 @@
       </c>
       <c r="O106">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P106">
         <f t="shared" si="5"/>
-        <v>8.2902489736842111E-2</v>
+        <v>0.15658444821423373</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -21564,7 +21565,7 @@
         <v>0.42743846759999998</v>
       </c>
       <c r="H107" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="I107" s="1">
         <v>32</v>
@@ -21586,11 +21587,11 @@
       </c>
       <c r="O107">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="P107">
+        <v>16.5</v>
+      </c>
+      <c r="P107" s="2">
         <f t="shared" si="5"/>
-        <v>8.6421077242105265E-2</v>
+        <v>0.19168849111085412</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -21643,7 +21644,7 @@
       </c>
       <c r="P108">
         <f t="shared" si="5"/>
-        <v>8.3503084968421043E-2</v>
+        <v>0.19141115005574072</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -21682,7 +21683,7 @@
         <v>2048</v>
       </c>
       <c r="L109" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M109" s="1">
         <v>2</v>
@@ -21692,11 +21693,11 @@
       </c>
       <c r="O109">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="P109">
+        <v>18</v>
+      </c>
+      <c r="P109" s="2">
         <f t="shared" si="5"/>
-        <v>8.40635898631579E-2</v>
+        <v>0.19874798586454634</v>
       </c>
     </row>
     <row r="110" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -21749,7 +21750,7 @@
       </c>
       <c r="P110">
         <f t="shared" si="5"/>
-        <v>8.3503084968421043E-2</v>
+        <v>0.19141115005574072</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -21788,7 +21789,7 @@
         <v>2048</v>
       </c>
       <c r="L111" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M111" s="1">
         <v>2</v>
@@ -21798,11 +21799,11 @@
       </c>
       <c r="O111">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P111">
         <f t="shared" si="5"/>
-        <v>8.3427205463157891E-2</v>
+        <v>0.17359442046065854</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -21832,10 +21833,10 @@
         <v>64</v>
       </c>
       <c r="I112" s="1">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="J112" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="K112" s="1">
         <v>2048</v>
@@ -21851,11 +21852,11 @@
       </c>
       <c r="O112">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>31.5</v>
       </c>
       <c r="P112">
         <f t="shared" si="5"/>
-        <v>6.7799475789473679E-2</v>
+        <v>0.21415964106864663</v>
       </c>
     </row>
     <row r="113" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -21885,10 +21886,10 @@
         <v>64</v>
       </c>
       <c r="I113" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J113" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="K113" s="1">
         <v>2048</v>
@@ -21904,11 +21905,11 @@
       </c>
       <c r="O113">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>22.75</v>
       </c>
       <c r="P113">
         <f t="shared" si="5"/>
-        <v>9.5914360726315789E-2</v>
+        <v>0.11922098957816495</v>
       </c>
     </row>
     <row r="114" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -21941,7 +21942,7 @@
         <v>32</v>
       </c>
       <c r="J114" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="K114" s="1">
         <v>2048</v>
@@ -21957,11 +21958,11 @@
       </c>
       <c r="O114">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P114">
         <f t="shared" si="5"/>
-        <v>8.3395791747368414E-2</v>
+        <v>0.1520394127609653</v>
       </c>
     </row>
     <row r="115" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -21991,10 +21992,10 @@
         <v>64</v>
       </c>
       <c r="I115" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J115" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="K115" s="1">
         <v>2048</v>
@@ -22010,11 +22011,11 @@
       </c>
       <c r="O115">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>26.5</v>
       </c>
       <c r="P115">
         <f t="shared" si="5"/>
-        <v>6.7798792921052647E-2</v>
+        <v>0.25457757404498377</v>
       </c>
     </row>
     <row r="116" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -22044,10 +22045,10 @@
         <v>64</v>
       </c>
       <c r="I116" s="1">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="J116" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="K116" s="1">
         <v>2048</v>
@@ -22063,11 +22064,11 @@
       </c>
       <c r="O116">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>22.75</v>
       </c>
       <c r="P116">
         <f t="shared" si="5"/>
-        <v>6.8576281105263162E-2</v>
+        <v>0.28479567413743617</v>
       </c>
     </row>
     <row r="117" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -22097,10 +22098,10 @@
         <v>64</v>
       </c>
       <c r="I117" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J117" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="K117" s="1">
         <v>2048</v>
@@ -22116,11 +22117,11 @@
       </c>
       <c r="O117">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="P117">
         <f t="shared" si="5"/>
-        <v>9.6843555789473679E-2</v>
+        <v>0.19052465340967864</v>
       </c>
     </row>
     <row r="118" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -22153,7 +22154,7 @@
         <v>32</v>
       </c>
       <c r="J118" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="K118" s="1">
         <v>2048</v>
@@ -22169,11 +22170,11 @@
       </c>
       <c r="O118">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>15.25</v>
       </c>
       <c r="P118">
         <f t="shared" si="5"/>
-        <v>8.4308951236842095E-2</v>
+        <v>0.23329366429381787</v>
       </c>
     </row>
     <row r="119" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -22203,10 +22204,10 @@
         <v>64</v>
       </c>
       <c r="I119" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J119" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="K119" s="1">
         <v>2048</v>
@@ -22222,11 +22223,11 @@
       </c>
       <c r="O119">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="P119">
+        <v>17.75</v>
+      </c>
+      <c r="P119" s="2">
         <f t="shared" si="5"/>
-        <v>6.8578982136842104E-2</v>
+        <v>0.36492950532297042</v>
       </c>
     </row>
     <row r="120" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -22256,10 +22257,10 @@
         <v>64</v>
       </c>
       <c r="I120" s="1">
+        <v>128</v>
+      </c>
+      <c r="J120" s="1">
         <v>32</v>
-      </c>
-      <c r="J120" s="1">
-        <v>64</v>
       </c>
       <c r="K120" s="1">
         <v>2048</v>
@@ -22275,11 +22276,11 @@
       </c>
       <c r="O120">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P120">
         <f t="shared" si="5"/>
-        <v>6.827518082105262E-2</v>
+        <v>0.27228833734752916</v>
       </c>
     </row>
     <row r="121" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -22309,10 +22310,10 @@
         <v>64</v>
       </c>
       <c r="I121" s="1">
+        <v>16</v>
+      </c>
+      <c r="J121" s="1">
         <v>32</v>
-      </c>
-      <c r="J121" s="1">
-        <v>64</v>
       </c>
       <c r="K121" s="1">
         <v>2048</v>
@@ -22328,11 +22329,11 @@
       </c>
       <c r="O121">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>15.25</v>
       </c>
       <c r="P121">
         <f t="shared" si="5"/>
-        <v>9.6335007326315794E-2</v>
+        <v>0.17644448541708713</v>
       </c>
     </row>
     <row r="122" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -22365,7 +22366,7 @@
         <v>32</v>
       </c>
       <c r="J122" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="K122" s="1">
         <v>2048</v>
@@ -22381,11 +22382,11 @@
       </c>
       <c r="O122">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="P122">
         <f t="shared" si="5"/>
-        <v>8.3807317684210528E-2</v>
+        <v>0.2184140591574068</v>
       </c>
     </row>
     <row r="123" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -22415,10 +22416,10 @@
         <v>64</v>
       </c>
       <c r="I123" s="1">
+        <v>64</v>
+      </c>
+      <c r="J123" s="1">
         <v>32</v>
-      </c>
-      <c r="J123" s="1">
-        <v>64</v>
       </c>
       <c r="K123" s="1">
         <v>2048</v>
@@ -22438,7 +22439,7 @@
       </c>
       <c r="P123">
         <f t="shared" si="5"/>
-        <v>6.827488266842105E-2</v>
+        <v>0.34395265429173788</v>
       </c>
     </row>
     <row r="124" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -22468,7 +22469,7 @@
         <v>64</v>
       </c>
       <c r="I124" s="1">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="J124" s="1">
         <v>64</v>
@@ -22487,11 +22488,11 @@
       </c>
       <c r="O124">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>26.5</v>
       </c>
       <c r="P124">
         <f t="shared" si="5"/>
-        <v>6.7936508878947366E-2</v>
+        <v>0.25209165137720452</v>
       </c>
     </row>
     <row r="125" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -22521,7 +22522,7 @@
         <v>64</v>
       </c>
       <c r="I125" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J125" s="1">
         <v>64</v>
@@ -22540,11 +22541,11 @@
       </c>
       <c r="O125">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>17.75</v>
       </c>
       <c r="P125">
         <f t="shared" si="5"/>
-        <v>9.6025895978947368E-2</v>
+        <v>0.15248191518603485</v>
       </c>
     </row>
     <row r="126" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -22597,7 +22598,7 @@
       </c>
       <c r="P126">
         <f t="shared" si="5"/>
-        <v>8.3503084968421043E-2</v>
+        <v>0.19141115005574072</v>
       </c>
     </row>
     <row r="127" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -22627,7 +22628,7 @@
         <v>64</v>
       </c>
       <c r="I127" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J127" s="1">
         <v>64</v>
@@ -22646,11 +22647,11 @@
       </c>
       <c r="O127">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>21.5</v>
       </c>
       <c r="P127">
         <f t="shared" si="5"/>
-        <v>6.7934230799999995E-2</v>
+        <v>0.31073029800920227</v>
       </c>
     </row>
     <row r="128" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -22692,18 +22693,18 @@
         <v>2</v>
       </c>
       <c r="M128" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N128" s="1">
         <v>8</v>
       </c>
       <c r="O128">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P128">
         <f t="shared" si="5"/>
-        <v>9.8272168710526311E-2</v>
+        <v>0.14422834123435085</v>
       </c>
     </row>
     <row r="129" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -22756,7 +22757,7 @@
       </c>
       <c r="P129">
         <f t="shared" si="5"/>
-        <v>8.3503084968421043E-2</v>
+        <v>0.19141115005574072</v>
       </c>
     </row>
     <row r="130" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -22798,18 +22799,18 @@
         <v>2</v>
       </c>
       <c r="M130" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N130" s="1">
         <v>8</v>
       </c>
       <c r="O130">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="P130">
+        <v>21</v>
+      </c>
+      <c r="P130" s="2">
         <f t="shared" si="5"/>
-        <v>6.7935128157894736E-2</v>
+        <v>0.31810145889909314</v>
       </c>
     </row>
     <row r="131" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -22854,15 +22855,15 @@
         <v>2</v>
       </c>
       <c r="N131" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O131">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="P131">
+        <v>17.25</v>
+      </c>
+      <c r="P131" s="2">
         <f t="shared" si="5"/>
-        <v>8.357239250526316E-2</v>
+        <v>0.21032912454628772</v>
       </c>
     </row>
     <row r="132" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -22907,15 +22908,15 @@
         <v>2</v>
       </c>
       <c r="N132" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O132">
         <f t="shared" ref="O132:O172" si="7">H132/128*10 + (I132 + J132)/128*10 + (L132+M132) + K132/4096*1 + N132/4*1</f>
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="P132">
-        <f t="shared" ref="P132:P172" si="8">(G132+C132)/O132</f>
-        <v>8.3514481221052622E-2</v>
+        <f t="shared" ref="P132:P172" si="8">(1/G132+1/C132)/O132</f>
+        <v>0.20773373050475627</v>
       </c>
     </row>
     <row r="133" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -22960,15 +22961,15 @@
         <v>2</v>
       </c>
       <c r="N133" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O133">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P133">
         <f t="shared" si="8"/>
-        <v>8.3507499599999993E-2</v>
+        <v>0.20201197617971539</v>
       </c>
     </row>
     <row r="134" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -23004,7 +23005,7 @@
         <v>64</v>
       </c>
       <c r="K134" s="1">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="L134" s="1">
         <v>2</v>
@@ -23017,11 +23018,11 @@
       </c>
       <c r="O134">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>18.75</v>
       </c>
       <c r="P134">
         <f t="shared" si="8"/>
-        <v>8.423035363157895E-2</v>
+        <v>0.18929200204815119</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -23072,9 +23073,9 @@
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="P135">
+      <c r="P135" s="2">
         <f t="shared" si="8"/>
-        <v>8.3503084968421043E-2</v>
+        <v>0.19141115005574072</v>
       </c>
     </row>
     <row r="136" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -23110,7 +23111,7 @@
         <v>64</v>
       </c>
       <c r="K136" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="L136" s="1">
         <v>2</v>
@@ -23123,11 +23124,11 @@
       </c>
       <c r="O136">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="P136">
         <f t="shared" si="8"/>
-        <v>8.3431847705263157E-2</v>
+        <v>0.18695461348134429</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -23163,7 +23164,7 @@
         <v>64</v>
       </c>
       <c r="K137" s="1">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="L137" s="1">
         <v>2</v>
@@ -23176,11 +23177,11 @@
       </c>
       <c r="O137">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>18.625</v>
       </c>
       <c r="P137">
         <f t="shared" si="8"/>
-        <v>8.4977801336842115E-2</v>
+        <v>0.18593952380578882</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -23219,20 +23220,20 @@
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="P138">
+      <c r="P138" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
       <c r="G139">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -23262,9 +23263,9 @@
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="P139">
+      <c r="P139" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="140" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -23344,7 +23345,7 @@
         <v>6.7022214332000001</v>
       </c>
       <c r="H141" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="I141" s="1">
         <v>32</v>
@@ -23366,11 +23367,11 @@
       </c>
       <c r="O141">
         <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="P141">
+        <v>24</v>
+      </c>
+      <c r="P141" s="2">
         <f t="shared" si="8"/>
-        <v>0.61510754911578946</v>
+        <v>1.4575551257583664E-2</v>
       </c>
     </row>
     <row r="142" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -23397,7 +23398,7 @@
         <v>26.804311954200003</v>
       </c>
       <c r="H142" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="I142" s="1">
         <v>32</v>
@@ -23419,11 +23420,11 @@
       </c>
       <c r="O142">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="P142">
         <f t="shared" si="8"/>
-        <v>2.0247351028526319</v>
+        <v>7.4563120795763877E-3</v>
       </c>
     </row>
     <row r="143" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -23476,7 +23477,7 @@
       </c>
       <c r="P143">
         <f t="shared" si="8"/>
-        <v>1.0768282593578948</v>
+        <v>1.1385456906743075E-2</v>
       </c>
     </row>
     <row r="144" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -23515,7 +23516,7 @@
         <v>2048</v>
       </c>
       <c r="L144" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M144" s="1">
         <v>2</v>
@@ -23525,11 +23526,11 @@
       </c>
       <c r="O144">
         <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="P144">
+        <v>18</v>
+      </c>
+      <c r="P144" s="2">
         <f t="shared" si="8"/>
-        <v>1.0766213151368422</v>
+        <v>1.2020479455445553E-2</v>
       </c>
     </row>
     <row r="145" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -23582,7 +23583,7 @@
       </c>
       <c r="P145">
         <f t="shared" si="8"/>
-        <v>1.0768282593578948</v>
+        <v>1.1385456906743075E-2</v>
       </c>
     </row>
     <row r="146" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -23621,7 +23622,7 @@
         <v>2048</v>
       </c>
       <c r="L146" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M146" s="1">
         <v>2</v>
@@ -23631,11 +23632,11 @@
       </c>
       <c r="O146">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P146">
         <f t="shared" si="8"/>
-        <v>1.0768289006789473</v>
+        <v>1.0301124447673046E-2</v>
       </c>
     </row>
     <row r="147" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -23665,10 +23666,10 @@
         <v>64</v>
       </c>
       <c r="I147" s="1">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="J147" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="K147" s="1">
         <v>2048</v>
@@ -23684,11 +23685,11 @@
       </c>
       <c r="O147">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>31.5</v>
       </c>
       <c r="P147">
         <f t="shared" si="8"/>
-        <v>1.0767287681578948</v>
+        <v>6.868623828992242E-3</v>
       </c>
     </row>
     <row r="148" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -23718,10 +23719,10 @@
         <v>64</v>
       </c>
       <c r="I148" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J148" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="K148" s="1">
         <v>2048</v>
@@ -23737,11 +23738,11 @@
       </c>
       <c r="O148">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>22.75</v>
       </c>
       <c r="P148">
         <f t="shared" si="8"/>
-        <v>1.0767311091368419</v>
+        <v>9.5103555819584379E-3</v>
       </c>
     </row>
     <row r="149" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -23774,7 +23775,7 @@
         <v>32</v>
       </c>
       <c r="J149" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="K149" s="1">
         <v>2048</v>
@@ -23790,11 +23791,11 @@
       </c>
       <c r="O149">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P149">
         <f t="shared" si="8"/>
-        <v>1.0767243939473685</v>
+        <v>9.0150941047897424E-3</v>
       </c>
     </row>
     <row r="150" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -23824,10 +23825,10 @@
         <v>64</v>
       </c>
       <c r="I150" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J150" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="K150" s="1">
         <v>2048</v>
@@ -23843,11 +23844,11 @@
       </c>
       <c r="O150">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>26.5</v>
       </c>
       <c r="P150">
         <f t="shared" si="8"/>
-        <v>1.0767290215789476</v>
+        <v>8.164580258197416E-3</v>
       </c>
     </row>
     <row r="151" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -23877,10 +23878,10 @@
         <v>64</v>
       </c>
       <c r="I151" s="1">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="J151" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="K151" s="1">
         <v>2048</v>
@@ -23896,11 +23897,11 @@
       </c>
       <c r="O151">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>22.75</v>
       </c>
       <c r="P151">
         <f t="shared" si="8"/>
-        <v>1.0767071875263159</v>
+        <v>9.5104853119856413E-3</v>
       </c>
     </row>
     <row r="152" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -23930,10 +23931,10 @@
         <v>64</v>
       </c>
       <c r="I152" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J152" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="K152" s="1">
         <v>2048</v>
@@ -23949,11 +23950,11 @@
       </c>
       <c r="O152">
         <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="P152">
+        <v>14</v>
+      </c>
+      <c r="P152" s="2">
         <f t="shared" si="8"/>
-        <v>1.0768145265578948</v>
+        <v>1.5451714384160858E-2</v>
       </c>
     </row>
     <row r="153" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -23986,7 +23987,7 @@
         <v>32</v>
       </c>
       <c r="J153" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="K153" s="1">
         <v>2048</v>
@@ -24002,11 +24003,11 @@
       </c>
       <c r="O153">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>15.25</v>
       </c>
       <c r="P153">
         <f t="shared" si="8"/>
-        <v>1.0767142336842104</v>
+        <v>1.4187631900617788E-2</v>
       </c>
     </row>
     <row r="154" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -24036,10 +24037,10 @@
         <v>64</v>
       </c>
       <c r="I154" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J154" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="K154" s="1">
         <v>2048</v>
@@ -24055,11 +24056,11 @@
       </c>
       <c r="O154">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>17.75</v>
       </c>
       <c r="P154">
         <f t="shared" si="8"/>
-        <v>1.0767095988157895</v>
+        <v>1.2189433422341784E-2</v>
       </c>
     </row>
     <row r="155" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -24089,10 +24090,10 @@
         <v>64</v>
       </c>
       <c r="I155" s="1">
+        <v>128</v>
+      </c>
+      <c r="J155" s="1">
         <v>32</v>
-      </c>
-      <c r="J155" s="1">
-        <v>64</v>
       </c>
       <c r="K155" s="1">
         <v>2048</v>
@@ -24108,11 +24109,11 @@
       </c>
       <c r="O155">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P155">
         <f t="shared" si="8"/>
-        <v>1.0767254211736843</v>
+        <v>9.0150853408178747E-3</v>
       </c>
     </row>
     <row r="156" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -24142,10 +24143,10 @@
         <v>64</v>
       </c>
       <c r="I156" s="1">
+        <v>16</v>
+      </c>
+      <c r="J156" s="1">
         <v>32</v>
-      </c>
-      <c r="J156" s="1">
-        <v>64</v>
       </c>
       <c r="K156" s="1">
         <v>2048</v>
@@ -24161,11 +24162,11 @@
       </c>
       <c r="O156">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>15.25</v>
       </c>
       <c r="P156">
         <f t="shared" si="8"/>
-        <v>1.0767331300842105</v>
+        <v>1.4187576101805434E-2</v>
       </c>
     </row>
     <row r="157" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -24198,7 +24199,7 @@
         <v>32</v>
       </c>
       <c r="J157" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="K157" s="1">
         <v>2048</v>
@@ -24214,11 +24215,11 @@
       </c>
       <c r="O157">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="P157">
         <f t="shared" si="8"/>
-        <v>1.0768269941263158</v>
+        <v>1.3110534244914433E-2</v>
       </c>
     </row>
     <row r="158" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -24248,10 +24249,10 @@
         <v>64</v>
       </c>
       <c r="I158" s="1">
+        <v>64</v>
+      </c>
+      <c r="J158" s="1">
         <v>32</v>
-      </c>
-      <c r="J158" s="1">
-        <v>64</v>
       </c>
       <c r="K158" s="1">
         <v>2048</v>
@@ -24271,7 +24272,7 @@
       </c>
       <c r="P158">
         <f t="shared" si="8"/>
-        <v>1.0767247798526316</v>
+        <v>1.1387479789860707E-2</v>
       </c>
     </row>
     <row r="159" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -24301,7 +24302,7 @@
         <v>64</v>
       </c>
       <c r="I159" s="1">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="J159" s="1">
         <v>64</v>
@@ -24320,11 +24321,11 @@
       </c>
       <c r="O159">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>26.5</v>
       </c>
       <c r="P159">
         <f t="shared" si="8"/>
-        <v>1.0767256960526317</v>
+        <v>8.1646214893050708E-3</v>
       </c>
     </row>
     <row r="160" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -24354,7 +24355,7 @@
         <v>64</v>
       </c>
       <c r="I160" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J160" s="1">
         <v>64</v>
@@ -24373,11 +24374,11 @@
       </c>
       <c r="O160">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>17.75</v>
       </c>
       <c r="P160">
         <f t="shared" si="8"/>
-        <v>1.0768321420947367</v>
+        <v>1.2187226511914928E-2</v>
       </c>
     </row>
     <row r="161" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -24430,7 +24431,7 @@
       </c>
       <c r="P161">
         <f t="shared" si="8"/>
-        <v>1.0768282593578948</v>
+        <v>1.1385456906743075E-2</v>
       </c>
     </row>
     <row r="162" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -24460,7 +24461,7 @@
         <v>64</v>
       </c>
       <c r="I162" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J162" s="1">
         <v>64</v>
@@ -24479,11 +24480,11 @@
       </c>
       <c r="O162">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>21.5</v>
       </c>
       <c r="P162">
         <f t="shared" si="8"/>
-        <v>1.0767241502631579</v>
+        <v>1.0063381655417111E-2</v>
       </c>
     </row>
     <row r="163" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -24525,18 +24526,18 @@
         <v>2</v>
       </c>
       <c r="M163" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N163" s="1">
         <v>8</v>
       </c>
       <c r="O163">
         <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="P163">
+        <v>18</v>
+      </c>
+      <c r="P163" s="2">
         <f t="shared" si="8"/>
-        <v>1.076732779705263</v>
+        <v>1.2020036654080654E-2</v>
       </c>
     </row>
     <row r="164" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -24589,7 +24590,7 @@
       </c>
       <c r="P164">
         <f t="shared" si="8"/>
-        <v>1.0768282593578948</v>
+        <v>1.1385456906743075E-2</v>
       </c>
     </row>
     <row r="165" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -24631,18 +24632,18 @@
         <v>2</v>
       </c>
       <c r="M165" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N165" s="1">
         <v>8</v>
       </c>
       <c r="O165">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P165">
         <f t="shared" si="8"/>
-        <v>1.0767254036842104</v>
+        <v>1.0302954763302763E-2</v>
       </c>
     </row>
     <row r="166" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -24687,15 +24688,15 @@
         <v>2</v>
       </c>
       <c r="N166" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O166">
         <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="P166">
+        <v>17.25</v>
+      </c>
+      <c r="P166" s="2">
         <f t="shared" si="8"/>
-        <v>1.076703890936842</v>
+        <v>1.2543255296884147E-2</v>
       </c>
     </row>
     <row r="167" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -24740,15 +24741,15 @@
         <v>2</v>
       </c>
       <c r="N167" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O167">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="P167">
         <f t="shared" si="8"/>
-        <v>1.0767123119894737</v>
+        <v>1.2363882198241439E-2</v>
       </c>
     </row>
     <row r="168" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -24793,15 +24794,15 @@
         <v>2</v>
       </c>
       <c r="N168" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O168">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P168">
         <f t="shared" si="8"/>
-        <v>1.0767159962000001</v>
+        <v>1.2020362876483583E-2</v>
       </c>
     </row>
     <row r="169" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -24837,7 +24838,7 @@
         <v>64</v>
       </c>
       <c r="K169" s="1">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="L169" s="1">
         <v>2</v>
@@ -24850,11 +24851,11 @@
       </c>
       <c r="O169">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>18.75</v>
       </c>
       <c r="P169">
         <f t="shared" si="8"/>
-        <v>1.0767705225157895</v>
+        <v>1.1538438186188086E-2</v>
       </c>
     </row>
     <row r="170" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -24907,7 +24908,7 @@
       </c>
       <c r="P170">
         <f t="shared" si="8"/>
-        <v>1.0768282593578948</v>
+        <v>1.1385456906743075E-2</v>
       </c>
     </row>
     <row r="171" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -24943,7 +24944,7 @@
         <v>64</v>
       </c>
       <c r="K171" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="L171" s="1">
         <v>2</v>
@@ -24956,11 +24957,11 @@
       </c>
       <c r="O171">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="P171">
         <f t="shared" si="8"/>
-        <v>1.076641890936842</v>
+        <v>1.1097170859474934E-2</v>
       </c>
     </row>
     <row r="172" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -24996,7 +24997,7 @@
         <v>64</v>
       </c>
       <c r="K172" s="1">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="L172" s="1">
         <v>2</v>
@@ -25009,11 +25010,11 @@
       </c>
       <c r="O172">
         <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="P172">
+        <v>18.625</v>
+      </c>
+      <c r="P172" s="2">
         <f t="shared" si="8"/>
-        <v>1.0767648909368421</v>
+        <v>1.1615992783938761E-2</v>
       </c>
     </row>
   </sheetData>
